--- a/Source_to_Target_Template.xlsx
+++ b/Source_to_Target_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shweta shukla\Desktop\Project_ETL\ETL_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9B6209-9503-401A-9F9C-CCD7DB087417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E708BC12-4A8C-4B74-B51F-8D1F323CBA72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4E609C33-0A9E-4DBE-9D4A-33AF5187E0F5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Source_to_Target" sheetId="1" r:id="rId1"/>
     <sheet name="Screenshots" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Source</t>
   </si>
@@ -64,13 +62,192 @@
   </si>
   <si>
     <t>Target</t>
+  </si>
+  <si>
+    <t>items.csv</t>
+  </si>
+  <si>
+    <t>reviews.csv</t>
+  </si>
+  <si>
+    <t>Amazon_Unlocked_Mobile</t>
+  </si>
+  <si>
+    <t>asin</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>reviewUrl</t>
+  </si>
+  <si>
+    <t>totalReviews</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>originalPrice</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>verified</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>helpfulVotes</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Brand Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Reviews</t>
+  </si>
+  <si>
+    <t>Review Votes</t>
+  </si>
+  <si>
+    <t>Cleanup: Dropping the data with NaN records in the datasets</t>
+  </si>
+  <si>
+    <t>Aggregation: Getting the count of possible products for each brand to map to the other datasets</t>
+  </si>
+  <si>
+    <t>Rename: Renaming the columns and keeping only the required columns from all datasets</t>
+  </si>
+  <si>
+    <t>Merging: Combining all the three Dataframes into one</t>
+  </si>
+  <si>
+    <t>ItemId</t>
+  </si>
+  <si>
+    <t>BrandName</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>ItemPrice</t>
+  </si>
+  <si>
+    <t>ReviewDate</t>
+  </si>
+  <si>
+    <t>ProductCountBrand</t>
+  </si>
+  <si>
+    <t>VARCHAR (255)</t>
+  </si>
+  <si>
+    <t>NUMERIC (15, 2)</t>
+  </si>
+  <si>
+    <t>FLOAT (1)</t>
+  </si>
+  <si>
+    <t>postgres
+preliminary</t>
+  </si>
+  <si>
+    <t>postgres
+final</t>
+  </si>
+  <si>
+    <t>Consolidated itemnames</t>
+  </si>
+  <si>
+    <r>
+      <t>Using Pandas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(for postgres preliminary)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Using SQLALchemy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(for postgres final)</t>
+    </r>
+  </si>
+  <si>
+    <t>Top_Phones
+[Top_ratings.csv]</t>
+  </si>
+  <si>
+    <t>Amazon_Reviews_Ratings
+[output_ratings.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMERIC </t>
+  </si>
+  <si>
+    <t>Average price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average ratings </t>
+  </si>
+  <si>
+    <t>Connection to Postgres database
+Create a query and DataFrame to store average ratings, average price by Item Name</t>
+  </si>
+  <si>
+    <t>TABLE AMAZON_REVIEW_RATINGS</t>
+  </si>
+  <si>
+    <t>TABLE TOP_PHONES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,8 +255,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +301,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -129,17 +320,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,8 +372,8 @@
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -207,27 +408,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C671515-7A4B-489D-9342-23A3FEEFA3F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9371E136-7B44-4CEA-83AD-CF6A5136AB59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
@@ -237,8 +440,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="8143875"/>
-          <a:ext cx="9458325" cy="7000875"/>
+          <a:off x="1219200" y="8572501"/>
+          <a:ext cx="8791575" cy="6629400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -547,43 +750,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5513CD8C-2D59-47E8-A428-49A9DEB47A60}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -595,11 +798,11 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -613,6 +816,237 @@
       </c>
       <c r="J2" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -628,15 +1062,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57BBB2C-0E45-4E2B-8B39-56DCC6C7011E}">
-  <dimension ref="A1"/>
+  <dimension ref="I1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+      <selection activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="36.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Source_to_Target_Template.xlsx
+++ b/Source_to_Target_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shweta shukla\Desktop\Project_ETL\ETL_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shweta shukla\Desktop\Project_ETL2\ETL_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E708BC12-4A8C-4B74-B51F-8D1F323CBA72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3554E1D6-2B96-49A9-8557-13C5D704805E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4E609C33-0A9E-4DBE-9D4A-33AF5187E0F5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>Source</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Datatype</t>
   </si>
   <si>
-    <t>Transformations</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
@@ -62,15 +59,6 @@
   </si>
   <si>
     <t>Target</t>
-  </si>
-  <si>
-    <t>items.csv</t>
-  </si>
-  <si>
-    <t>reviews.csv</t>
-  </si>
-  <si>
-    <t>Amazon_Unlocked_Mobile</t>
   </si>
   <si>
     <t>asin</t>
@@ -184,6 +172,60 @@
   </si>
   <si>
     <t>Consolidated itemnames</t>
+  </si>
+  <si>
+    <t>Top_Phones
+[Top_ratings.csv]</t>
+  </si>
+  <si>
+    <t>Amazon_Reviews_Ratings
+[output_ratings.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMERIC </t>
+  </si>
+  <si>
+    <t>Average price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average ratings </t>
+  </si>
+  <si>
+    <t>Connection to Postgres database
+Create a query and DataFrame to store average ratings, average price by Item Name</t>
+  </si>
+  <si>
+    <t>TABLE AMAZON_REVIEW_RATINGS</t>
+  </si>
+  <si>
+    <t>TABLE TOP_PHONES</t>
+  </si>
+  <si>
+    <t>items.csv
+(kaggle)</t>
+  </si>
+  <si>
+    <t>reviews.csv
+(kaggle)</t>
+  </si>
+  <si>
+    <t>Amazon_Unlocked_Mobile
+(data.world)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">object </t>
+  </si>
+  <si>
+    <t xml:space="preserve">float64 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">int64 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bool </t>
+  </si>
+  <si>
+    <t>Transformation Description</t>
   </si>
   <si>
     <r>
@@ -197,7 +239,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(for postgres preliminary)</t>
+      <t>(cleaned data)</t>
     </r>
   </si>
   <si>
@@ -212,42 +254,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(for postgres final)</t>
+      <t>(modeled data)</t>
     </r>
-  </si>
-  <si>
-    <t>Top_Phones
-[Top_ratings.csv]</t>
-  </si>
-  <si>
-    <t>Amazon_Reviews_Ratings
-[output_ratings.csv]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUMERIC </t>
-  </si>
-  <si>
-    <t>Average price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average ratings </t>
-  </si>
-  <si>
-    <t>Connection to Postgres database
-Create a query and DataFrame to store average ratings, average price by Item Name</t>
-  </si>
-  <si>
-    <t>TABLE AMAZON_REVIEW_RATINGS</t>
-  </si>
-  <si>
-    <t>TABLE TOP_PHONES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +277,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -320,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -339,11 +360,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,15 +779,15 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="65.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
@@ -776,17 +802,17 @@
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="D1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -798,12 +824,12 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>2</v>
@@ -812,247 +838,324 @@
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>14</v>
+      <c r="C4" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
         <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
         <v>40</v>
       </c>
-      <c r="H11" t="s">
-        <v>44</v>
-      </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="C25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
+      <c r="C26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1075,12 +1178,12 @@
   <sheetData>
     <row r="1" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I1" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I43" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
